--- a/docss/trend/spain/E_pemphigus.xlsx
+++ b/docss/trend/spain/E_pemphigus.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej13_Pénfigo_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej13_Pénfigo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,13 +12837,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>2.13729731118667E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>2.8281026576758499E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>1.46577035372052E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12851,13 +12851,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.5650957074483801E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C3">
-        <v>1.5302171705329701E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>1.52239347671656E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12865,13 +12865,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>1.36149075118087E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C4">
-        <v>1.9374188682233399E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D4">
-        <v>9.7319556033260701E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,13 +12879,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>1.8770651504514901E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C5">
-        <v>1.5924961562629399E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D5">
-        <v>2.0583431732670798E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12893,13 +12893,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>1.7645285565332E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>1.4733537938764901E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>1.9753234810981499E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12907,13 +12907,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>1.51175627554505E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>2.8240152242479999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>8.3561997257077403E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12921,13 +12921,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>1.19300282069854E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C8">
-        <v>1.77207003244799E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>6.7286348723389804E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12935,13 +12935,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>9.5423059930827107E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
-        <v>1.9517118200052998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <v>4.2146912284883901E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12949,13 +12949,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>1.58118420096773E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C10">
-        <v>1.38794913166432E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D10">
-        <v>1.35064253086867E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12963,13 +12963,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>8.7804416337401592E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C11">
-        <v>1.0372152004698799E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>8.3687127607465304E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12977,13 +12977,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>1.53340013857394E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C12">
-        <v>1.9750248302469801E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>1.3211090766389899E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12991,13 +12991,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>8.8321537416461097E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C13">
-        <v>6.3017928600686904E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>8.2871114904886807E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,13 +13005,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>8.8283514007766999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C14">
-        <v>7.16181563553766E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D14">
-        <v>9.87679013749709E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13019,13 +13019,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>1.6953866559320799E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>1.1825124161737E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D15">
-        <v>1.9924271962821101E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13033,13 +13033,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>1.4290766006758699E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C16">
-        <v>1.27973176822138E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>1.19460545619826E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>
